--- a/docs/화면 구성_hj.xlsx
+++ b/docs/화면 구성_hj.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Omachinosensei\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75B1E79-88C3-4EFE-8A66-2D1415B50B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9131CFC9-564C-4EFE-B594-044BEFF68491}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +96,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,18 +407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE929FBF-70DD-4988-823E-37873EB39E05}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
